--- a/data/BppTrend/Error_Record_Files/CAA Valuation Factors 2020.xlsx
+++ b/data/BppTrend/Error_Record_Files/CAA Valuation Factors 2020.xlsx
@@ -587,7 +587,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
@@ -629,7 +631,7 @@
     </row>
     <row r="5" spans="1:2" ht="14.5">
       <c r="A5" s="7">
-        <v>2106</v>
+        <v>2016</v>
       </c>
       <c r="B5" s="3">
         <v>19</v>
@@ -763,7 +765,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
@@ -782,7 +786,7 @@
     </row>
     <row r="2" spans="1:6" ht="14.5">
       <c r="A2" s="7">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>16</v>
@@ -879,7 +883,7 @@
     </row>
     <row r="14" spans="1:6" ht="14.5">
       <c r="A14" s="7">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B14" s="3">
         <v>16</v>
@@ -915,12 +919,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1141,15 +1142,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EFFB5BE-0098-48C2-BBB0-46C3FEF9D505}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3042FB5-FB08-4B9F-9044-0268488FBE5E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1174,10 +1179,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3042FB5-FB08-4B9F-9044-0268488FBE5E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EFFB5BE-0098-48C2-BBB0-46C3FEF9D505}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/BppTrend/Error_Record_Files/CAA Valuation Factors 2020.xlsx
+++ b/data/BppTrend/Error_Record_Files/CAA Valuation Factors 2020.xlsx
@@ -585,11 +585,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
@@ -607,7 +605,7 @@
     </row>
     <row r="2" spans="1:2" ht="14.5">
       <c r="A2" s="5">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>16</v>
@@ -615,57 +613,49 @@
     </row>
     <row r="3" spans="1:2" ht="14.5">
       <c r="A3" s="5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.5">
-      <c r="A4" s="5">
-        <v>2017</v>
+      <c r="A4" s="7">
+        <v>2016</v>
       </c>
       <c r="B4" s="3">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.5">
-      <c r="A5" s="7">
-        <v>2016</v>
+      <c r="A5" s="5">
+        <v>2015</v>
       </c>
       <c r="B5" s="3">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.5">
       <c r="A6" s="5">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B6" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.5">
       <c r="A7" s="5">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B7" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1">
       <c r="A8" s="5">
-        <v>2013</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1">
-      <c r="A9" s="5">
         <v>2012</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B8" s="4">
         <v>2</v>
       </c>
     </row>
@@ -676,7 +666,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -696,7 +686,7 @@
     </row>
     <row r="2" spans="1:2" ht="14.5">
       <c r="A2" s="5">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>16</v>
@@ -704,7 +694,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.5">
       <c r="A3" s="5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>17</v>
@@ -712,49 +702,41 @@
     </row>
     <row r="4" spans="1:2" ht="14.5">
       <c r="A4" s="5">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B4" s="3">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.5">
       <c r="A5" s="5">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B5" s="3">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.5">
       <c r="A6" s="5">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B6" s="3">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.5">
       <c r="A7" s="5">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B7" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1">
       <c r="A8" s="5">
-        <v>2013</v>
-      </c>
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1">
-      <c r="A9" s="5">
         <v>2012</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B8" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -763,11 +745,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
@@ -785,8 +765,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.5">
-      <c r="A2" s="7">
-        <v>2019</v>
+      <c r="A2" s="5">
+        <v>2018</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>16</v>
@@ -794,7 +774,7 @@
     </row>
     <row r="3" spans="1:6" ht="14.5">
       <c r="A3" s="5">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>17</v>
@@ -802,114 +782,106 @@
     </row>
     <row r="4" spans="1:6" ht="14.5">
       <c r="A4" s="5">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B4" s="3">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.5">
       <c r="A5" s="5">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B5" s="3">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.5">
       <c r="A6" s="5">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B6" s="3">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.5">
       <c r="A7" s="5">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B7" s="3">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.5">
       <c r="A8" s="5">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B8" s="3">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.5">
       <c r="A9" s="5">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B9" s="3">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="14.5">
       <c r="A10" s="5">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B10" s="3">
-        <v>32</v>
-      </c>
-      <c r="F10" s="5"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="14.5">
       <c r="A11" s="5">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B11" s="3">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.5">
       <c r="A12" s="5">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B12" s="3">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.5">
-      <c r="A13" s="5">
-        <v>2008</v>
+      <c r="A13" s="7">
+        <v>2007</v>
       </c>
       <c r="B13" s="3">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.5">
-      <c r="A14" s="7">
-        <v>2007</v>
+      <c r="A14" s="5">
+        <v>2006</v>
       </c>
       <c r="B14" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.5">
       <c r="A15" s="5">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B15" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1">
       <c r="A16" s="5">
-        <v>2005</v>
-      </c>
-      <c r="B16" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1">
-      <c r="A17" s="5">
         <v>2004</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B16" s="4">
         <v>7</v>
       </c>
     </row>
@@ -919,9 +891,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1142,19 +1117,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3042FB5-FB08-4B9F-9044-0268488FBE5E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EFFB5BE-0098-48C2-BBB0-46C3FEF9D505}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1179,9 +1150,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EFFB5BE-0098-48C2-BBB0-46C3FEF9D505}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3042FB5-FB08-4B9F-9044-0268488FBE5E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>